--- a/split_data/input/all_cities/HsinChu_web.xlsx
+++ b/split_data/input/all_cities/HsinChu_web.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>超速、闖紅燈、違規轉彎、未依標誌標線行駛、未停讓行人、人行道違規</t>
+          <t>超速、闖紅燈、違規轉彎、未依標誌標線行駛、未停讓行人、人行道違規(西側)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
